--- a/result/reduced_proc_classification_result.xlsx
+++ b/result/reduced_proc_classification_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.655160313124196</v>
+        <v>0.5696291547463442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.5640000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6604434720955141</v>
+        <v>0.6289259988206177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.665</v>
+        <v>0.6075</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6551736209860469</v>
+        <v>0.6641157913352068</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6689999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6677549352789758</v>
+        <v>0.500948808950948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.655</v>
+        <v>0.502</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5957969020069952</v>
+        <v>0.6091506016182076</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6289999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6087642620835377</v>
+        <v>0.5865631528644721</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6054999999999999</v>
+        <v>0.6110000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7088625386636983</v>
+        <v>0.6889796196133278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.745</v>
+        <v>0.7180000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6893012231265854</v>
+        <v>0.674428656652411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7010000000000001</v>
+        <v>0.6855</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6620993308693814</v>
+        <v>0.6473491909008886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6759999999999999</v>
+        <v>0.9480000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6661735964683464</v>
+        <v>0.4918555057391506</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6575</v>
+        <v>0.487</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6587017408192346</v>
+        <v>0.6017323807093553</v>
       </c>
       <c r="K5" t="n">
-        <v>0.723</v>
+        <v>0.611</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6227763396981081</v>
+        <v>0.6032489817106115</v>
       </c>
       <c r="M5" t="n">
-        <v>0.627</v>
+        <v>0.6214999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6910102976589225</v>
+        <v>0.630258001061337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.703</v>
+        <v>0.723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7012870801775524</v>
+        <v>0.5801521608554855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7</v>
+        <v>0.593</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6685577596879884</v>
+        <v>0.663189793483707</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7060000000000001</v>
+        <v>0.9860000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6483552753022465</v>
+        <v>0.4996475575957275</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6529999999999999</v>
+        <v>0.4995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6676597393861549</v>
+        <v>0.6302343615535737</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7150000000000001</v>
+        <v>0.6380000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6424271738087848</v>
+        <v>0.6362502519737273</v>
       </c>
       <c r="M6" t="n">
-        <v>0.644</v>
+        <v>0.6475</v>
       </c>
     </row>
     <row r="7">
@@ -687,40 +687,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3704313625641449</v>
+        <v>0.2154210467690116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.404</v>
+        <v>0.176</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3610392801866072</v>
+        <v>0.3613725041177805</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3995000000000001</v>
+        <v>0.421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4120574340364292</v>
+        <v>0.07849586080043762</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.102</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3610417014715862</v>
+        <v>0.2328125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.51</v>
+        <v>0.4865</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4797760973811953</v>
+        <v>0.4032295676642556</v>
       </c>
       <c r="K7" t="n">
-        <v>0.505</v>
+        <v>0.4069999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0.504287714519607</v>
+        <v>0.4033372780918357</v>
       </c>
       <c r="M7" t="n">
-        <v>0.502</v>
+        <v>0.4135</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_proc_classification_result.xlsx
+++ b/result/reduced_proc_classification_result.xlsx
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5696291547463442</v>
+        <v>0.6464299407097029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5640000000000001</v>
+        <v>0.6690000000000002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6289259988206177</v>
+        <v>0.6726204350704883</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6075</v>
+        <v>0.65</v>
       </c>
       <c r="F4" t="n">
         <v>0.6641157913352068</v>
@@ -582,16 +582,16 @@
         <v>0.502</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6091506016182076</v>
+        <v>0.6814720846263654</v>
       </c>
       <c r="K4" t="n">
-        <v>0.65</v>
+        <v>0.6970000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5865631528644721</v>
+        <v>0.6872220031814477</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6110000000000001</v>
+        <v>0.6845</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6889796196133278</v>
+        <v>0.6638522343565456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7180000000000001</v>
+        <v>0.655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.674428656652411</v>
+        <v>0.720816064029648</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6855</v>
+        <v>0.6995</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6473491909008886</v>
+        <v>0.6495272800975109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9480000000000001</v>
+        <v>0.9520000000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4918555057391506</v>
+        <v>0.4932141918756495</v>
       </c>
       <c r="I5" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6017323807093553</v>
+        <v>0.6732384748072968</v>
       </c>
       <c r="K5" t="n">
-        <v>0.611</v>
+        <v>0.6789999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6032489817106115</v>
+        <v>0.6910129273954774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6214999999999999</v>
+        <v>0.6805</v>
       </c>
     </row>
     <row r="6">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.630258001061337</v>
+        <v>0.6286100584114255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.723</v>
+        <v>0.5980000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5801521608554855</v>
+        <v>0.7261531982035309</v>
       </c>
       <c r="E6" t="n">
-        <v>0.593</v>
+        <v>0.6849999999999998</v>
       </c>
       <c r="F6" t="n">
         <v>0.663189793483707</v>
@@ -668,16 +668,16 @@
         <v>0.4995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6302343615535737</v>
+        <v>0.6686910638764928</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6380000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6362502519737273</v>
+        <v>0.7069230812855634</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6475</v>
+        <v>0.6855</v>
       </c>
     </row>
     <row r="7">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2154210467690116</v>
+        <v>0.6294446968967373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.176</v>
+        <v>0.667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3613725041177805</v>
+        <v>0.612703039295774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.421</v>
+        <v>0.608</v>
       </c>
       <c r="F7" t="n">
         <v>0.07849586080043762</v>
@@ -711,16 +711,16 @@
         <v>0.4865</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4032295676642556</v>
+        <v>0.5667790773836666</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4069999999999999</v>
+        <v>0.6050000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4033372780918357</v>
+        <v>0.5807291844353841</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4135</v>
+        <v>0.5730000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_proc_classification_result.xlsx
+++ b/result/reduced_proc_classification_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6464299407097029</v>
+        <v>0.6718380303341256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6690000000000002</v>
+        <v>0.6809999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6726204350704883</v>
+        <v>0.6855582855486929</v>
       </c>
       <c r="E4" t="n">
-        <v>0.65</v>
+        <v>0.677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6641157913352068</v>
+        <v>0.5907062303113287</v>
       </c>
       <c r="G4" t="n">
-        <v>0.985</v>
+        <v>0.597</v>
       </c>
       <c r="H4" t="n">
-        <v>0.500948808950948</v>
+        <v>0.5916427939661594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.502</v>
+        <v>0.589</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6814720846263654</v>
+        <v>0.9287481116485458</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6970000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6872220031814477</v>
+        <v>0.9329904203633393</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6845</v>
+        <v>0.9279999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6638522343565456</v>
+        <v>0.6800333987524947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.655</v>
+        <v>0.6980000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.720816064029648</v>
+        <v>0.6827706965798201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6995</v>
+        <v>0.6785000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6495272800975109</v>
+        <v>0.5807759710969893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9520000000000002</v>
+        <v>0.576</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4932141918756495</v>
+        <v>0.6303047285603531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.489</v>
+        <v>0.5990000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6732384748072968</v>
+        <v>0.8129093776788885</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6789999999999999</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6910129273954774</v>
+        <v>0.8441411950493343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6805</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6286100584114255</v>
+        <v>0.7008501192909451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5980000000000001</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7261531982035309</v>
+        <v>0.6208081766012383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6849999999999998</v>
+        <v>0.6530000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.663189793483707</v>
+        <v>0.5963788963570399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9860000000000001</v>
+        <v>0.603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4996475575957275</v>
+        <v>0.5969462172508369</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4995</v>
+        <v>0.5940000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6686910638764928</v>
+        <v>0.7512941382518582</v>
       </c>
       <c r="K6" t="n">
-        <v>0.66</v>
+        <v>0.729</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7069230812855634</v>
+        <v>0.819597667191821</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6855</v>
+        <v>0.7675</v>
       </c>
     </row>
     <row r="7">
@@ -687,40 +687,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6294446968967373</v>
+        <v>0.4400990361462195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.667</v>
+        <v>0.441</v>
       </c>
       <c r="D7" t="n">
-        <v>0.612703039295774</v>
+        <v>0.4447796887164944</v>
       </c>
       <c r="E7" t="n">
-        <v>0.608</v>
+        <v>0.4415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07849586080043762</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.102</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2328125</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4865</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5667790773836666</v>
+        <v>0.8306033025396022</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6050000000000001</v>
+        <v>0.8230000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5807291844353841</v>
+        <v>0.868980878121641</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5730000000000001</v>
+        <v>0.8375</v>
       </c>
     </row>
   </sheetData>
